--- a/projects/test_building/input/Parameter_UnitUser_PersonNumber.xlsx
+++ b/projects/test_building/input/Parameter_UnitUser_PersonNumber.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A0928E-9C98-A142-8ED8-6134307BB94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665C0EB6-B41A-8648-9825-360828B1E849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14580" yWindow="-21040" windowWidth="22260" windowHeight="20960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8600" yWindow="-20960" windowWidth="22260" windowHeight="20960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="6">
   <si>
     <t>unit</t>
   </si>
@@ -55,6 +55,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -92,66 +95,66 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -167,13 +170,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D24" totalsRowShown="0">
-  <autoFilter ref="A1:D24" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D22" totalsRowShown="0">
+  <autoFilter ref="A1:D22" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
     <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="id_subsector"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id_unit_user_type"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="unit"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="value" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="value" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -442,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="191" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -482,7 +485,7 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="3">
         <v>1</v>
       </c>
     </row>
@@ -496,8 +499,8 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1">
-        <v>1</v>
+      <c r="D3" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -510,8 +513,8 @@
       <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1">
-        <v>2</v>
+      <c r="D4" s="3">
+        <v>3.5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -524,7 +527,7 @@
       <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <v>2</v>
       </c>
     </row>
@@ -538,359 +541,331 @@
       <c r="C6" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="1">
-        <v>2</v>
+      <c r="D6" s="3">
+        <v>3.5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>61</v>
+      <c r="A7" s="1">
+        <v>31</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="D7" s="3">
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>61</v>
+      <c r="A8" s="1">
+        <v>32</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>31</v>
+      <c r="A9" s="1">
+        <v>33</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="3">
         <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>32</v>
+      <c r="A10" s="1">
+        <v>34</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>37</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>38</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>39</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>33</v>
-      </c>
-      <c r="B11">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="1">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>310</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>34</v>
-      </c>
-      <c r="B12">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="1">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>35</v>
-      </c>
-      <c r="B13">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>36</v>
-      </c>
-      <c r="B14">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="1">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>37</v>
-      </c>
-      <c r="B15">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>38</v>
-      </c>
-      <c r="B16">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="1">
-        <v>30</v>
-      </c>
-    </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>39</v>
+      <c r="A17" s="1">
+        <v>311</v>
       </c>
       <c r="B17">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="3">
         <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>310</v>
+      <c r="A18" s="1">
+        <v>312</v>
       </c>
       <c r="B18">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="3">
         <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>311</v>
+      <c r="A19" s="1">
+        <v>313</v>
       </c>
       <c r="B19">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>314</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>315</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>312</v>
-      </c>
-      <c r="B20">
-        <v>8</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="1">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>316</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>313</v>
-      </c>
-      <c r="B21">
-        <v>8</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="1">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <v>314</v>
-      </c>
-      <c r="B22">
-        <v>8</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="1">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
-        <v>315</v>
-      </c>
-      <c r="B23">
-        <v>8</v>
-      </c>
-      <c r="C23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
-        <v>316</v>
-      </c>
-      <c r="B24">
-        <v>8</v>
-      </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="1">
-        <v>60</v>
-      </c>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L29" s="3"/>
+      <c r="L29" s="2"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L30" s="3"/>
+      <c r="L30" s="2"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L31" s="3"/>
+      <c r="L31" s="2"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L32" s="3"/>
+      <c r="L32" s="2"/>
     </row>
     <row r="33" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L33" s="3"/>
+      <c r="L33" s="2"/>
     </row>
     <row r="34" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L34" s="3"/>
+      <c r="L34" s="2"/>
     </row>
     <row r="35" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L35" s="3"/>
+      <c r="L35" s="2"/>
     </row>
     <row r="36" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L36" s="3"/>
+      <c r="L36" s="2"/>
     </row>
     <row r="37" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L37" s="3"/>
+      <c r="L37" s="2"/>
     </row>
     <row r="38" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L38" s="3"/>
+      <c r="L38" s="2"/>
     </row>
     <row r="39" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L39" s="3"/>
+      <c r="L39" s="2"/>
     </row>
     <row r="40" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L40" s="3"/>
+      <c r="L40" s="2"/>
     </row>
     <row r="41" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L41" s="3"/>
+      <c r="L41" s="2"/>
     </row>
     <row r="42" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L44" s="3"/>
+      <c r="L42" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L29:L31">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="notEqual">
+  <conditionalFormatting sqref="L27:L29">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="notEqual">
+      <formula>$F26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L30">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="notEqual">
+      <formula>$F27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L31">
+    <cfRule type="cellIs" dxfId="8" priority="13" operator="notEqual">
+      <formula>$F29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L32 L34">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="notEqual">
       <formula>$F28</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L32">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="notEqual">
-      <formula>$F29</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="L33">
-    <cfRule type="cellIs" dxfId="7" priority="13" operator="notEqual">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="notEqual">
       <formula>$F31</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L34 L36">
-    <cfRule type="cellIs" dxfId="6" priority="11" operator="notEqual">
-      <formula>$F30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L35">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="notEqual">
+  <conditionalFormatting sqref="L35:L37">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="notEqual">
+      <formula>$F34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L38">
+    <cfRule type="cellIs" dxfId="4" priority="19" operator="notEqual">
       <formula>$F33</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L37:L39">
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="notEqual">
-      <formula>$F36</formula>
+  <conditionalFormatting sqref="L39">
+    <cfRule type="cellIs" dxfId="3" priority="17" operator="notEqual">
+      <formula>$F32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L40">
-    <cfRule type="cellIs" dxfId="3" priority="19" operator="notEqual">
-      <formula>$F35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L41">
-    <cfRule type="cellIs" dxfId="2" priority="17" operator="notEqual">
-      <formula>$F34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L42">
-    <cfRule type="cellIs" dxfId="1" priority="15" operator="notEqual">
-      <formula>$F33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L43:L44">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="notEqual">
-      <formula>$F42</formula>
+    <cfRule type="cellIs" dxfId="2" priority="15" operator="notEqual">
+      <formula>$F31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L41:L42">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="notEqual">
+      <formula>$F40</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/projects/test_building/input/Parameter_UnitUser_PersonNumber.xlsx
+++ b/projects/test_building/input/Parameter_UnitUser_PersonNumber.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665C0EB6-B41A-8648-9825-360828B1E849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="8600" yWindow="-20960" windowWidth="22260" windowHeight="20960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8595" yWindow="-20955" windowWidth="22260" windowHeight="20955"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="test" sheetId="3" r:id="rId1"/>
+    <sheet name="test_calib" sheetId="2" r:id="rId2"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="10">
   <si>
     <t>unit</t>
   </si>
@@ -50,11 +51,23 @@
   <si>
     <t>sqm/count</t>
   </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>counter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calib round 1 </t>
+  </si>
+  <si>
+    <t>---&gt;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -81,7 +94,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -89,72 +102,208 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA3A3A3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA3A3A3"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFA3A3A3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFA3A3A3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="33">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -170,13 +319,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D22" totalsRowShown="0">
-  <autoFilter ref="A1:D22" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A1:D22" totalsRowShown="0">
+  <autoFilter ref="A1:D22"/>
   <tableColumns count="4">
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="id_subsector"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id_unit_user_type"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="unit"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="value" dataDxfId="0"/>
+    <tableColumn id="17" name="id_subsector"/>
+    <tableColumn id="1" name="id_unit_user_type"/>
+    <tableColumn id="3" name="unit"/>
+    <tableColumn id="2" name="value" dataDxfId="32"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:D22" totalsRowShown="0">
+  <autoFilter ref="A1:D22"/>
+  <tableColumns count="4">
+    <tableColumn id="17" name="id_subsector"/>
+    <tableColumn id="1" name="id_unit_user_type"/>
+    <tableColumn id="3" name="unit"/>
+    <tableColumn id="2" name="value" dataDxfId="31"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D22" totalsRowShown="0">
+  <autoFilter ref="A1:D22"/>
+  <tableColumns count="4">
+    <tableColumn id="17" name="id_subsector"/>
+    <tableColumn id="1" name="id_unit_user_type"/>
+    <tableColumn id="3" name="unit"/>
+    <tableColumn id="2" name="value" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -444,24 +619,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="191" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -475,7 +650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>61</v>
       </c>
@@ -489,7 +664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>61</v>
       </c>
@@ -503,7 +678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>61</v>
       </c>
@@ -517,7 +692,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>61</v>
       </c>
@@ -531,7 +706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>61</v>
       </c>
@@ -545,7 +720,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>31</v>
       </c>
@@ -556,10 +731,10 @@
         <v>5</v>
       </c>
       <c r="D7" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>32</v>
       </c>
@@ -570,10 +745,10 @@
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>33</v>
       </c>
@@ -584,10 +759,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>34</v>
       </c>
@@ -598,10 +773,10 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>35</v>
       </c>
@@ -612,10 +787,10 @@
         <v>5</v>
       </c>
       <c r="D11" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>36</v>
       </c>
@@ -626,10 +801,10 @@
         <v>5</v>
       </c>
       <c r="D12" s="3">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>37</v>
       </c>
@@ -640,10 +815,10 @@
         <v>5</v>
       </c>
       <c r="D13" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>38</v>
       </c>
@@ -654,10 +829,10 @@
         <v>5</v>
       </c>
       <c r="D14" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>39</v>
       </c>
@@ -668,10 +843,10 @@
         <v>5</v>
       </c>
       <c r="D15" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>310</v>
       </c>
@@ -682,10 +857,10 @@
         <v>5</v>
       </c>
       <c r="D16" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>311</v>
       </c>
@@ -696,10 +871,10 @@
         <v>5</v>
       </c>
       <c r="D17" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>312</v>
       </c>
@@ -710,10 +885,10 @@
         <v>5</v>
       </c>
       <c r="D18" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>313</v>
       </c>
@@ -724,10 +899,10 @@
         <v>5</v>
       </c>
       <c r="D19" s="3">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>314</v>
       </c>
@@ -738,10 +913,10 @@
         <v>5</v>
       </c>
       <c r="D20" s="3">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>315</v>
       </c>
@@ -752,10 +927,10 @@
         <v>5</v>
       </c>
       <c r="D21" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>316</v>
       </c>
@@ -766,105 +941,1524 @@
         <v>5</v>
       </c>
       <c r="D22" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L42" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="L27:L29">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="notEqual">
+      <formula>$F23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L30">
+    <cfRule type="cellIs" dxfId="28" priority="5" operator="notEqual">
+      <formula>$F24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L31">
+    <cfRule type="cellIs" dxfId="27" priority="7" operator="notEqual">
       <formula>$F26</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="L32 L34">
+    <cfRule type="cellIs" dxfId="26" priority="6" operator="notEqual">
+      <formula>$F25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L33">
+    <cfRule type="cellIs" dxfId="25" priority="3" operator="notEqual">
+      <formula>$F28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L35:L37">
+    <cfRule type="cellIs" dxfId="24" priority="4" operator="notEqual">
+      <formula>$F31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L38">
+    <cfRule type="cellIs" dxfId="23" priority="10" operator="notEqual">
+      <formula>$F30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L39">
+    <cfRule type="cellIs" dxfId="22" priority="9" operator="notEqual">
+      <formula>$F29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L40">
+    <cfRule type="cellIs" dxfId="21" priority="8" operator="notEqual">
+      <formula>$F28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L41:L42">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="notEqual">
+      <formula>$F37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O42"/>
+  <sheetViews>
+    <sheetView topLeftCell="D8" zoomScale="191" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7:O22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>61</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>61</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>61</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>61</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>61</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="G6">
+        <v>2019</v>
+      </c>
+      <c r="H6">
+        <v>2020</v>
+      </c>
+      <c r="I6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="8">
+        <v>2019</v>
+      </c>
+      <c r="N6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>31</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3">
+        <v>60</v>
+      </c>
+      <c r="F7">
+        <v>31</v>
+      </c>
+      <c r="G7" s="4">
+        <v>-0.58699999999999997</v>
+      </c>
+      <c r="H7" s="4">
+        <v>-0.64500000000000002</v>
+      </c>
+      <c r="I7" s="5">
+        <f>AVERAGE(G7:H7)</f>
+        <v>-0.61599999999999999</v>
+      </c>
+      <c r="J7">
+        <f>1+I7*-1</f>
+        <v>1.6160000000000001</v>
+      </c>
+      <c r="K7">
+        <f>ROUND(D7/J7,0)</f>
+        <v>37</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0.5554</v>
+      </c>
+      <c r="N7">
+        <f>1+M7*-1</f>
+        <v>0.4446</v>
+      </c>
+      <c r="O7">
+        <f>ROUND(K7/N7,0)</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>60</v>
+      </c>
+      <c r="F8">
+        <v>32</v>
+      </c>
+      <c r="G8" s="4">
+        <v>-5.8999999999999997E-2</v>
+      </c>
+      <c r="H8" s="4">
+        <v>-4.2999999999999997E-2</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" ref="I8:I22" si="0">AVERAGE(G8:H8)</f>
+        <v>-5.0999999999999997E-2</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ref="J8:J22" si="1">1+I8*-1</f>
+        <v>1.0509999999999999</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ref="K8:K22" si="2">ROUND(D8/J8,0)</f>
+        <v>57</v>
+      </c>
+      <c r="M8" s="4">
+        <v>-2.3E-2</v>
+      </c>
+      <c r="N8">
+        <f t="shared" ref="N8:N22" si="3">1+M8*-1</f>
+        <v>1.0229999999999999</v>
+      </c>
+      <c r="O8">
+        <f t="shared" ref="O8:O23" si="4">ROUND(K8/N8,0)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>33</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3">
+        <v>60</v>
+      </c>
+      <c r="F9">
+        <v>33</v>
+      </c>
+      <c r="G9" s="4">
+        <v>-0.3</v>
+      </c>
+      <c r="H9" s="4">
+        <v>-0.438</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.36899999999999999</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>1.369</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="M9" s="4">
+        <v>-0.38300000000000001</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="3"/>
+        <v>1.383</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>34</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3">
+        <v>110</v>
+      </c>
+      <c r="F10">
+        <v>34</v>
+      </c>
+      <c r="G10" s="4">
+        <v>-0.42899999999999999</v>
+      </c>
+      <c r="H10" s="4">
+        <v>-0.49199999999999999</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.46050000000000002</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>1.4605000000000001</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="M10" s="4">
+        <v>-0.17299999999999999</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="3"/>
+        <v>1.173</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3">
+        <v>40</v>
+      </c>
+      <c r="F11">
+        <v>35</v>
+      </c>
+      <c r="G11" s="4">
+        <v>-8.6999999999999994E-2</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" si="0"/>
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="M11" s="4">
+        <v>-0.30399999999999999</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="3"/>
+        <v>1.304</v>
+      </c>
+      <c r="O11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="3">
+        <v>115</v>
+      </c>
+      <c r="F12">
+        <v>36</v>
+      </c>
+      <c r="G12" s="4">
+        <v>-0.36799999999999999</v>
+      </c>
+      <c r="H12" s="4">
+        <v>-0.22600000000000001</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.29699999999999999</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>1.2969999999999999</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="M12" s="4">
+        <v>-0.186</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="3"/>
+        <v>1.1859999999999999</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="4"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>37</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3">
+        <v>40</v>
+      </c>
+      <c r="F13">
+        <v>37</v>
+      </c>
+      <c r="G13" s="4">
+        <v>-0.16700000000000001</v>
+      </c>
+      <c r="H13" s="4">
+        <v>-0.28599999999999998</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.22649999999999998</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>1.2264999999999999</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="M13" s="4">
+        <v>-0.29199999999999998</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="3"/>
+        <v>1.292</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>38</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3">
+        <v>30</v>
+      </c>
+      <c r="F14">
+        <v>38</v>
+      </c>
+      <c r="G14" s="4">
+        <v>-0.45200000000000001</v>
+      </c>
+      <c r="H14" s="4">
+        <v>-0.48499999999999999</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.46850000000000003</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>1.4685000000000001</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="M14" s="4">
+        <v>-0.22600000000000001</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="3"/>
+        <v>1.226</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>39</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="3">
+        <v>60</v>
+      </c>
+      <c r="F15">
+        <v>39</v>
+      </c>
+      <c r="G15" s="4">
+        <v>-0.46700000000000003</v>
+      </c>
+      <c r="H15" s="4">
+        <v>-0.52900000000000003</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.498</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>1.498</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="M15" s="4">
+        <v>-0.26700000000000002</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="3"/>
+        <v>1.2669999999999999</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>310</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="3">
+        <v>60</v>
+      </c>
+      <c r="F16">
+        <v>310</v>
+      </c>
+      <c r="G16" s="4">
+        <v>-0.60799999999999998</v>
+      </c>
+      <c r="H16" s="4">
+        <v>-0.64600000000000002</v>
+      </c>
+      <c r="I16" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.627</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>1.627</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="M16" s="4">
+        <v>-0.375</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="3"/>
+        <v>1.375</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>311</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3">
+        <v>60</v>
+      </c>
+      <c r="F17">
+        <v>311</v>
+      </c>
+      <c r="G17" s="4">
+        <v>-0.42899999999999999</v>
+      </c>
+      <c r="H17" s="4">
+        <v>-0.45300000000000001</v>
+      </c>
+      <c r="I17" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.441</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>1.4410000000000001</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="M17" s="4">
+        <v>-0.214</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="3"/>
+        <v>1.214</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>312</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="3">
+        <v>60</v>
+      </c>
+      <c r="F18">
+        <v>312</v>
+      </c>
+      <c r="G18" s="4">
+        <v>-0.40300000000000002</v>
+      </c>
+      <c r="H18" s="4">
+        <v>-0.49399999999999999</v>
+      </c>
+      <c r="I18" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.44850000000000001</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>1.4485000000000001</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="M18" s="4">
+        <v>-0.14899999999999999</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="3"/>
+        <v>1.149</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>313</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="3">
+        <v>128</v>
+      </c>
+      <c r="F19">
+        <v>313</v>
+      </c>
+      <c r="G19" s="4">
+        <v>-6.8000000000000005E-2</v>
+      </c>
+      <c r="H19" s="4">
+        <v>-0.16900000000000001</v>
+      </c>
+      <c r="I19" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.11850000000000001</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>1.1185</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="2"/>
+        <v>114</v>
+      </c>
+      <c r="M19" s="4">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="3"/>
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="4"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>314</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="3">
+        <v>42</v>
+      </c>
+      <c r="F20">
+        <v>314</v>
+      </c>
+      <c r="G20" s="4">
+        <v>-0.53900000000000003</v>
+      </c>
+      <c r="H20" s="4">
+        <v>-0.59799999999999998</v>
+      </c>
+      <c r="I20" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.56850000000000001</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>1.5685</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="M20" s="4">
+        <v>-0.27700000000000002</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="3"/>
+        <v>1.2770000000000001</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>315</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="3">
+        <v>60</v>
+      </c>
+      <c r="F21">
+        <v>315</v>
+      </c>
+      <c r="G21" s="4">
+        <v>-0.51519999999999999</v>
+      </c>
+      <c r="H21" s="4">
+        <v>-0.54300000000000004</v>
+      </c>
+      <c r="I21" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.52910000000000001</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>1.5291000000000001</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="M21" s="4">
+        <v>-0.27300000000000002</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="3"/>
+        <v>1.2730000000000001</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>316</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="3">
+        <v>60</v>
+      </c>
+      <c r="F22">
+        <v>316</v>
+      </c>
+      <c r="G22" s="4">
+        <v>-0.55400000000000005</v>
+      </c>
+      <c r="H22" s="4">
+        <v>-0.6</v>
+      </c>
+      <c r="I22" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.57699999999999996</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>1.577</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="M22" s="4">
+        <v>-0.313</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="3"/>
+        <v>1.3129999999999999</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G23" s="10">
+        <v>-0.34</v>
+      </c>
+      <c r="H23" s="9">
+        <v>-0.35899999999999999</v>
+      </c>
+      <c r="M23" s="4">
+        <v>-0.13600000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L39" s="2"/>
+    </row>
+    <row r="40" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L42" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G5:K5"/>
+  </mergeCells>
+  <conditionalFormatting sqref="L27:L29">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="notEqual">
+      <formula>$F23</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L30">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="notEqual">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="notEqual">
+      <formula>$F24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L31">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="notEqual">
+      <formula>$F26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L32 L34">
+    <cfRule type="cellIs" dxfId="16" priority="6" operator="notEqual">
+      <formula>$F25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L33">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="notEqual">
+      <formula>$F28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L35:L37">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="notEqual">
+      <formula>$F31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L38">
+    <cfRule type="cellIs" dxfId="13" priority="10" operator="notEqual">
+      <formula>$F30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L39">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="notEqual">
+      <formula>$F29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L40">
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="notEqual">
+      <formula>$F28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L41:L42">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="notEqual">
+      <formula>$F37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L42"/>
+  <sheetViews>
+    <sheetView zoomScale="191" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>61</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>61</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>61</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>61</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>61</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>31</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>33</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>34</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>37</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>38</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>39</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>310</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>311</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>312</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>313</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>314</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>315</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>316</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L39" s="2"/>
+    </row>
+    <row r="40" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L42" s="2"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="L27:L29">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="notEqual">
+      <formula>$F26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L30">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="notEqual">
       <formula>$F27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L31">
-    <cfRule type="cellIs" dxfId="8" priority="13" operator="notEqual">
+    <cfRule type="cellIs" dxfId="7" priority="13" operator="notEqual">
       <formula>$F29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32 L34">
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="notEqual">
+    <cfRule type="cellIs" dxfId="6" priority="11" operator="notEqual">
       <formula>$F28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L33">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="notEqual">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="notEqual">
       <formula>$F31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L35:L37">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="notEqual">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="notEqual">
       <formula>$F34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L38">
-    <cfRule type="cellIs" dxfId="4" priority="19" operator="notEqual">
+    <cfRule type="cellIs" dxfId="3" priority="19" operator="notEqual">
       <formula>$F33</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L39">
-    <cfRule type="cellIs" dxfId="3" priority="17" operator="notEqual">
+    <cfRule type="cellIs" dxfId="2" priority="17" operator="notEqual">
       <formula>$F32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L40">
-    <cfRule type="cellIs" dxfId="2" priority="15" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="15" operator="notEqual">
       <formula>$F31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L41:L42">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="notEqual">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="notEqual">
       <formula>$F40</formula>
     </cfRule>
   </conditionalFormatting>

--- a/projects/test_building/input/Parameter_UnitUser_PersonNumber.xlsx
+++ b/projects/test_building/input/Parameter_UnitUser_PersonNumber.xlsx
@@ -12,7 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="test" sheetId="1" r:id="rId1"/>
+    <sheet name="test_calib" sheetId="2" r:id="rId2"/>
+    <sheet name="Tabelle1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="10">
   <si>
     <t>id_subsector</t>
   </si>
@@ -42,6 +44,18 @@
   </si>
   <si>
     <t>sqm/count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calib round 1 </t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>counter</t>
+  </si>
+  <si>
+    <t>---&gt;</t>
   </si>
 </sst>
 </file>
@@ -74,7 +88,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -82,20 +96,150 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA3A3A3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA3A3A3"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFA3A3A3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFA3A3A3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="30">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -237,6 +381,32 @@
     <tableColumn id="4" name="value"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:D22" totalsRowShown="0">
+  <autoFilter ref="A1:D22"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="id_subsector"/>
+    <tableColumn id="2" name="id_unit_user_type"/>
+    <tableColumn id="3" name="unit"/>
+    <tableColumn id="4" name="value"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D22" totalsRowShown="0">
+  <autoFilter ref="A1:D22"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="id_subsector"/>
+    <tableColumn id="2" name="id_unit_user_type"/>
+    <tableColumn id="3" name="unit"/>
+    <tableColumn id="4" name="value"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -520,16 +690,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -543,7 +713,7 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>1</v>
       </c>
     </row>
@@ -557,7 +727,7 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>2</v>
       </c>
     </row>
@@ -571,7 +741,7 @@
       <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>3</v>
       </c>
     </row>
@@ -585,7 +755,7 @@
       <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>2</v>
       </c>
     </row>
@@ -599,7 +769,7 @@
       <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>3</v>
       </c>
     </row>
@@ -613,7 +783,7 @@
       <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>83</v>
       </c>
     </row>
@@ -627,7 +797,7 @@
       <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <v>56</v>
       </c>
     </row>
@@ -641,7 +811,7 @@
       <c r="C9" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <v>32</v>
       </c>
     </row>
@@ -655,7 +825,7 @@
       <c r="C10" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <v>64</v>
       </c>
     </row>
@@ -669,7 +839,7 @@
       <c r="C11" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3">
         <v>30</v>
       </c>
     </row>
@@ -683,7 +853,7 @@
       <c r="C12" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="3">
         <v>75</v>
       </c>
     </row>
@@ -697,7 +867,7 @@
       <c r="C13" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="3">
         <v>26</v>
       </c>
     </row>
@@ -711,7 +881,7 @@
       <c r="C14" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="3">
         <v>16</v>
       </c>
     </row>
@@ -725,7 +895,7 @@
       <c r="C15" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="3">
         <v>32</v>
       </c>
     </row>
@@ -739,7 +909,7 @@
       <c r="C16" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="3">
         <v>27</v>
       </c>
     </row>
@@ -753,7 +923,7 @@
       <c r="C17" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="3">
         <v>35</v>
       </c>
     </row>
@@ -767,7 +937,7 @@
       <c r="C18" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="3">
         <v>36</v>
       </c>
     </row>
@@ -781,7 +951,7 @@
       <c r="C19" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="3">
         <v>119</v>
       </c>
     </row>
@@ -795,7 +965,7 @@
       <c r="C20" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="3">
         <v>21</v>
       </c>
     </row>
@@ -809,7 +979,7 @@
       <c r="C21" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="3">
         <v>31</v>
       </c>
     </row>
@@ -823,107 +993,1526 @@
       <c r="C22" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="3">
         <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="L27" s="3"/>
+      <c r="L27" s="4"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="L28" s="3"/>
+      <c r="L28" s="4"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="L29" s="3"/>
+      <c r="L29" s="4"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="L30" s="3"/>
+      <c r="L30" s="4"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="L31" s="3"/>
+      <c r="L31" s="4"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="L32" s="3"/>
+      <c r="L32" s="4"/>
     </row>
     <row r="33" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L33" s="3"/>
+      <c r="L33" s="4"/>
     </row>
     <row r="34" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L34" s="3"/>
+      <c r="L34" s="4"/>
     </row>
     <row r="35" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L35" s="3"/>
+      <c r="L35" s="4"/>
     </row>
     <row r="36" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L36" s="3"/>
+      <c r="L36" s="4"/>
     </row>
     <row r="37" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L37" s="3"/>
+      <c r="L37" s="4"/>
     </row>
     <row r="38" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L38" s="3"/>
+      <c r="L38" s="4"/>
     </row>
     <row r="39" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L39" s="3"/>
+      <c r="L39" s="4"/>
     </row>
     <row r="40" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L40" s="3"/>
+      <c r="L40" s="4"/>
     </row>
     <row r="41" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L41" s="3"/>
+      <c r="L41" s="4"/>
     </row>
     <row r="42" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L42" s="3"/>
+      <c r="L42" s="4"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="L27:L29">
+    <cfRule type="cellIs" dxfId="29" priority="2" operator="notEqual">
+      <formula>$F23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L30">
+    <cfRule type="cellIs" dxfId="28" priority="3" operator="notEqual">
+      <formula>$F24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L31">
+    <cfRule type="cellIs" dxfId="27" priority="4" operator="notEqual">
+      <formula>$F26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L32 L34">
+    <cfRule type="cellIs" dxfId="26" priority="5" operator="notEqual">
+      <formula>$F25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L33">
+    <cfRule type="cellIs" dxfId="25" priority="6" operator="notEqual">
+      <formula>$F28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L35:L37">
+    <cfRule type="cellIs" dxfId="24" priority="7" operator="notEqual">
+      <formula>$F31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L38">
+    <cfRule type="cellIs" dxfId="23" priority="8" operator="notEqual">
+      <formula>$F30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L39">
+    <cfRule type="cellIs" dxfId="22" priority="9" operator="notEqual">
+      <formula>$F29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L40">
+    <cfRule type="cellIs" dxfId="21" priority="10" operator="notEqual">
+      <formula>$F28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L41:L42">
+    <cfRule type="cellIs" dxfId="20" priority="11" operator="notEqual">
+      <formula>$F37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O42"/>
+  <sheetViews>
+    <sheetView topLeftCell="D8" zoomScale="191" zoomScaleNormal="191" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" customWidth="1"/>
+    <col min="4" max="4" width="7.90625" customWidth="1"/>
+    <col min="9" max="9" width="9.81640625" customWidth="1"/>
+    <col min="13" max="13" width="9.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>61</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>61</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>61</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>61</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>61</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="G6">
+        <v>2019</v>
+      </c>
+      <c r="H6">
+        <v>2020</v>
+      </c>
+      <c r="I6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="5">
+        <v>2019</v>
+      </c>
+      <c r="N6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>31</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3">
+        <v>60</v>
+      </c>
+      <c r="F7">
+        <v>31</v>
+      </c>
+      <c r="G7" s="6">
+        <v>-0.58699999999999997</v>
+      </c>
+      <c r="H7" s="6">
+        <v>-0.64500000000000002</v>
+      </c>
+      <c r="I7" s="7">
+        <f t="shared" ref="I7:I22" si="0">AVERAGE(G7:H7)</f>
+        <v>-0.61599999999999999</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ref="J7:J22" si="1">1+I7*-1</f>
+        <v>1.6160000000000001</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ref="K7:K22" si="2">ROUND(D7/J7,0)</f>
+        <v>37</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0.5554</v>
+      </c>
+      <c r="N7">
+        <f t="shared" ref="N7:N22" si="3">1+M7*-1</f>
+        <v>0.4446</v>
+      </c>
+      <c r="O7">
+        <f>ROUND(K7/N7,0)</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>60</v>
+      </c>
+      <c r="F8">
+        <v>32</v>
+      </c>
+      <c r="G8" s="6">
+        <v>-5.8999999999999997E-2</v>
+      </c>
+      <c r="H8" s="6">
+        <v>-4.2999999999999997E-2</v>
+      </c>
+      <c r="I8" s="7">
+        <f t="shared" si="0"/>
+        <v>-5.0999999999999997E-2</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>1.0509999999999999</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="M8" s="6">
+        <v>-2.3E-2</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="3"/>
+        <v>1.0229999999999999</v>
+      </c>
+      <c r="O8">
+        <f>ROUND(K8/N8,0)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>33</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3">
+        <v>60</v>
+      </c>
+      <c r="F9">
+        <v>33</v>
+      </c>
+      <c r="G9" s="6">
+        <v>-0.3</v>
+      </c>
+      <c r="H9" s="6">
+        <v>-0.438</v>
+      </c>
+      <c r="I9" s="7">
+        <f t="shared" si="0"/>
+        <v>-0.36899999999999999</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>1.369</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="M9" s="6">
+        <v>-0.38300000000000001</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="3"/>
+        <v>1.383</v>
+      </c>
+      <c r="O9">
+        <f>ROUND(K9/N9,0)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>34</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3">
+        <v>110</v>
+      </c>
+      <c r="F10">
+        <v>34</v>
+      </c>
+      <c r="G10" s="6">
+        <v>-0.42899999999999999</v>
+      </c>
+      <c r="H10" s="6">
+        <v>-0.49199999999999999</v>
+      </c>
+      <c r="I10" s="7">
+        <f t="shared" si="0"/>
+        <v>-0.46050000000000002</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>1.4605000000000001</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="M10" s="6">
+        <v>-0.17299999999999999</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="3"/>
+        <v>1.173</v>
+      </c>
+      <c r="O10">
+        <f>ROUND(K10/N10,0)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3">
+        <v>40</v>
+      </c>
+      <c r="F11">
+        <v>35</v>
+      </c>
+      <c r="G11" s="6">
+        <v>-8.6999999999999994E-2</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="I11" s="7">
+        <f t="shared" si="0"/>
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="M11" s="6">
+        <v>-0.30399999999999999</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="3"/>
+        <v>1.304</v>
+      </c>
+      <c r="O11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="3">
+        <v>115</v>
+      </c>
+      <c r="F12">
+        <v>36</v>
+      </c>
+      <c r="G12" s="6">
+        <v>-0.36799999999999999</v>
+      </c>
+      <c r="H12" s="6">
+        <v>-0.22600000000000001</v>
+      </c>
+      <c r="I12" s="7">
+        <f t="shared" si="0"/>
+        <v>-0.29699999999999999</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>1.2969999999999999</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="M12" s="6">
+        <v>-0.186</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="3"/>
+        <v>1.1859999999999999</v>
+      </c>
+      <c r="O12">
+        <f t="shared" ref="O12:O22" si="4">ROUND(K12/N12,0)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>37</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3">
+        <v>40</v>
+      </c>
+      <c r="F13">
+        <v>37</v>
+      </c>
+      <c r="G13" s="6">
+        <v>-0.16700000000000001</v>
+      </c>
+      <c r="H13" s="6">
+        <v>-0.28599999999999998</v>
+      </c>
+      <c r="I13" s="7">
+        <f t="shared" si="0"/>
+        <v>-0.22649999999999998</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>1.2264999999999999</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="M13" s="6">
+        <v>-0.29199999999999998</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="3"/>
+        <v>1.292</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>38</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3">
+        <v>30</v>
+      </c>
+      <c r="F14">
+        <v>38</v>
+      </c>
+      <c r="G14" s="6">
+        <v>-0.45200000000000001</v>
+      </c>
+      <c r="H14" s="6">
+        <v>-0.48499999999999999</v>
+      </c>
+      <c r="I14" s="7">
+        <f t="shared" si="0"/>
+        <v>-0.46850000000000003</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>1.4685000000000001</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="M14" s="6">
+        <v>-0.22600000000000001</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="3"/>
+        <v>1.226</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>39</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="3">
+        <v>60</v>
+      </c>
+      <c r="F15">
+        <v>39</v>
+      </c>
+      <c r="G15" s="6">
+        <v>-0.46700000000000003</v>
+      </c>
+      <c r="H15" s="6">
+        <v>-0.52900000000000003</v>
+      </c>
+      <c r="I15" s="7">
+        <f t="shared" si="0"/>
+        <v>-0.498</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>1.498</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="M15" s="6">
+        <v>-0.26700000000000002</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="3"/>
+        <v>1.2669999999999999</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>310</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="3">
+        <v>60</v>
+      </c>
+      <c r="F16">
+        <v>310</v>
+      </c>
+      <c r="G16" s="6">
+        <v>-0.60799999999999998</v>
+      </c>
+      <c r="H16" s="6">
+        <v>-0.64600000000000002</v>
+      </c>
+      <c r="I16" s="7">
+        <f t="shared" si="0"/>
+        <v>-0.627</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>1.627</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="M16" s="6">
+        <v>-0.375</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="3"/>
+        <v>1.375</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>311</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3">
+        <v>60</v>
+      </c>
+      <c r="F17">
+        <v>311</v>
+      </c>
+      <c r="G17" s="6">
+        <v>-0.42899999999999999</v>
+      </c>
+      <c r="H17" s="6">
+        <v>-0.45300000000000001</v>
+      </c>
+      <c r="I17" s="7">
+        <f t="shared" si="0"/>
+        <v>-0.441</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>1.4410000000000001</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="M17" s="6">
+        <v>-0.214</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="3"/>
+        <v>1.214</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>312</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="3">
+        <v>60</v>
+      </c>
+      <c r="F18">
+        <v>312</v>
+      </c>
+      <c r="G18" s="6">
+        <v>-0.40300000000000002</v>
+      </c>
+      <c r="H18" s="6">
+        <v>-0.49399999999999999</v>
+      </c>
+      <c r="I18" s="7">
+        <f t="shared" si="0"/>
+        <v>-0.44850000000000001</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>1.4485000000000001</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="M18" s="6">
+        <v>-0.14899999999999999</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="3"/>
+        <v>1.149</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>313</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="3">
+        <v>128</v>
+      </c>
+      <c r="F19">
+        <v>313</v>
+      </c>
+      <c r="G19" s="6">
+        <v>-6.8000000000000005E-2</v>
+      </c>
+      <c r="H19" s="6">
+        <v>-0.16900000000000001</v>
+      </c>
+      <c r="I19" s="7">
+        <f t="shared" si="0"/>
+        <v>-0.11850000000000001</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>1.1185</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="2"/>
+        <v>114</v>
+      </c>
+      <c r="M19" s="6">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="3"/>
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="4"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>314</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="3">
+        <v>42</v>
+      </c>
+      <c r="F20">
+        <v>314</v>
+      </c>
+      <c r="G20" s="6">
+        <v>-0.53900000000000003</v>
+      </c>
+      <c r="H20" s="6">
+        <v>-0.59799999999999998</v>
+      </c>
+      <c r="I20" s="7">
+        <f t="shared" si="0"/>
+        <v>-0.56850000000000001</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>1.5685</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="M20" s="6">
+        <v>-0.27700000000000002</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="3"/>
+        <v>1.2770000000000001</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>315</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="3">
+        <v>60</v>
+      </c>
+      <c r="F21">
+        <v>315</v>
+      </c>
+      <c r="G21" s="6">
+        <v>-0.51519999999999999</v>
+      </c>
+      <c r="H21" s="6">
+        <v>-0.54300000000000004</v>
+      </c>
+      <c r="I21" s="7">
+        <f t="shared" si="0"/>
+        <v>-0.52910000000000001</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>1.5291000000000001</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="M21" s="6">
+        <v>-0.27300000000000002</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="3"/>
+        <v>1.2730000000000001</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>316</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="3">
+        <v>60</v>
+      </c>
+      <c r="F22">
+        <v>316</v>
+      </c>
+      <c r="G22" s="6">
+        <v>-0.55400000000000005</v>
+      </c>
+      <c r="H22" s="6">
+        <v>-0.6</v>
+      </c>
+      <c r="I22" s="7">
+        <f t="shared" si="0"/>
+        <v>-0.57699999999999996</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>1.577</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="M22" s="6">
+        <v>-0.313</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="3"/>
+        <v>1.3129999999999999</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="G23" s="9">
+        <v>-0.34</v>
+      </c>
+      <c r="H23" s="10">
+        <v>-0.35899999999999999</v>
+      </c>
+      <c r="M23" s="6">
+        <v>-0.13600000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L29" s="4"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L30" s="4"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L31" s="4"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L32" s="4"/>
+    </row>
+    <row r="33" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L33" s="4"/>
+    </row>
+    <row r="34" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L34" s="4"/>
+    </row>
+    <row r="35" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L35" s="4"/>
+    </row>
+    <row r="36" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L36" s="4"/>
+    </row>
+    <row r="37" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L37" s="4"/>
+    </row>
+    <row r="38" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L38" s="4"/>
+    </row>
+    <row r="39" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L39" s="4"/>
+    </row>
+    <row r="40" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L40" s="4"/>
+    </row>
+    <row r="41" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L41" s="4"/>
+    </row>
+    <row r="42" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L42" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G5:K5"/>
+  </mergeCells>
+  <conditionalFormatting sqref="L27:L29">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="notEqual">
+      <formula>$F23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L30">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="notEqual">
+      <formula>$F24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L31">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="notEqual">
+      <formula>$F26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L32 L34">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="notEqual">
+      <formula>$F25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L33">
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="notEqual">
+      <formula>$F28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L35:L37">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="notEqual">
+      <formula>$F31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L38">
+    <cfRule type="cellIs" dxfId="13" priority="8" operator="notEqual">
+      <formula>$F30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L39">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="notEqual">
+      <formula>$F29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L40">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="notEqual">
+      <formula>$F28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L41:L42">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="notEqual">
+      <formula>$F37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L42"/>
+  <sheetViews>
+    <sheetView zoomScale="191" zoomScaleNormal="191" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" customWidth="1"/>
+    <col min="4" max="4" width="7.90625" customWidth="1"/>
+    <col min="9" max="9" width="9.81640625" customWidth="1"/>
+    <col min="13" max="13" width="9.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>61</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>61</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>61</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>61</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>61</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>31</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>33</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>34</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>37</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>38</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>39</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>310</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>311</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>312</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>313</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>314</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>315</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>316</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L29" s="4"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L30" s="4"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L31" s="4"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L32" s="4"/>
+    </row>
+    <row r="33" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L33" s="4"/>
+    </row>
+    <row r="34" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L34" s="4"/>
+    </row>
+    <row r="35" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L35" s="4"/>
+    </row>
+    <row r="36" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L36" s="4"/>
+    </row>
+    <row r="37" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L37" s="4"/>
+    </row>
+    <row r="38" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L38" s="4"/>
+    </row>
+    <row r="39" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L39" s="4"/>
+    </row>
+    <row r="40" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L40" s="4"/>
+    </row>
+    <row r="41" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L41" s="4"/>
+    </row>
+    <row r="42" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L42" s="4"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="L27:L29">
     <cfRule type="cellIs" dxfId="9" priority="2" operator="notEqual">
-      <formula>$F23</formula>
+      <formula>$F26</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L30">
     <cfRule type="cellIs" dxfId="8" priority="3" operator="notEqual">
-      <formula>$F24</formula>
+      <formula>$F27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L31">
     <cfRule type="cellIs" dxfId="7" priority="4" operator="notEqual">
-      <formula>$F26</formula>
+      <formula>$F29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32 L34">
     <cfRule type="cellIs" dxfId="6" priority="5" operator="notEqual">
-      <formula>$F25</formula>
+      <formula>$F28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L33">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="notEqual">
-      <formula>$F28</formula>
+      <formula>$F31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L35:L37">
     <cfRule type="cellIs" dxfId="4" priority="7" operator="notEqual">
-      <formula>$F31</formula>
+      <formula>$F34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L38">
     <cfRule type="cellIs" dxfId="3" priority="8" operator="notEqual">
-      <formula>$F30</formula>
+      <formula>$F33</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L39">
     <cfRule type="cellIs" dxfId="2" priority="9" operator="notEqual">
-      <formula>$F29</formula>
+      <formula>$F32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L40">
     <cfRule type="cellIs" dxfId="1" priority="10" operator="notEqual">
-      <formula>$F28</formula>
+      <formula>$F31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L41:L42">
     <cfRule type="cellIs" dxfId="0" priority="11" operator="notEqual">
-      <formula>$F37</formula>
+      <formula>$F40</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
